--- a/DATA/List of Tickers.xlsx
+++ b/DATA/List of Tickers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job Apps\2020\28_Kenanga\Forecasting-SDPR-Gold-Trust-ETF-Prices\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job Apps\2020\28_Kenanga\Forecasting-SDPR-Gold-Trust-ETF-Prices--PRD-\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF14739-7F9E-4551-B89A-B4CEB6E7E636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BB68AC-5026-4176-AC41-78422F803F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Ticker Code</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Performance of safe-haven for companies</t>
   </si>
   <si>
-    <t>Links</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
   </si>
   <si>
     <t>https://oilprice.com/Energy/Energy-General/The-Energy-Model-That-Can-Predict-Gold-Prices.html#:~:text=Over%20the%20long%2Dterm%2C%20gold,tandem%20with%20crude%20oil%20prices.</t>
-  </si>
-  <si>
-    <t>NYSEArca - NYSEArca Delayed Price. Currency in USD</t>
   </si>
   <si>
     <t>SPDR_Gold_Shares</t>
@@ -523,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +529,7 @@
     <col min="3" max="3" width="65.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -548,11 +542,8 @@
       <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -560,16 +551,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -577,13 +565,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -591,13 +579,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -605,13 +593,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -619,13 +607,13 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -633,13 +621,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -647,13 +635,13 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -661,13 +649,13 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -675,49 +663,49 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
@@ -744,31 +732,31 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
